--- a/Documents/Size.xlsx
+++ b/Documents/Size.xlsx
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>十进制</t>
   </si>
   <si>
     <t>十六进制</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>MB</t>
   </si>
 </sst>
 </file>
@@ -1177,119 +1183,219 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B11" si="0">DEC2HEX(A2,8)</f>
-        <v>00000200</v>
+        <f t="shared" ref="B2:B7" si="0">DEC2HEX(A2,8)</f>
+        <v>00000008</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <f t="shared" ref="A3:A9" si="1">A2*2</f>
-        <v>1024</v>
+        <v>16</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>00000400</v>
+        <v>00000010</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <f t="shared" si="1"/>
-        <v>2048</v>
+        <v>32</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>00000800</v>
+        <v>00000020</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>4096</v>
+        <v>64</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>00001000</v>
+        <v>00000040</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <f t="shared" si="1"/>
-        <v>8192</v>
+        <v>128</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>00002000</v>
+        <v>00000080</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <f t="shared" si="1"/>
-        <v>16384</v>
+        <v>256</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>00004000</v>
+        <v>00000100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
+        <v>512</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ref="B8:B18" si="1">DEC2HEX(A8,8)</f>
+        <v>00000200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" ref="A9:A15" si="2">A8*2</f>
+        <v>1024</v>
+      </c>
+      <c r="B9" t="str">
         <f t="shared" si="1"/>
+        <v>00000400</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C8:C18" si="3">A9/1024</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>00000800</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>00001000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>00002000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>00004000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <f t="shared" si="2"/>
         <v>32768</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
         <v>00008000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>65536</v>
+      </c>
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
         <v>00010000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <f>96*1024</f>
         <v>98304</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
         <v>00018000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <f>1024*1024</f>
         <v>1048576</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
         <v>00100000</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="D17">
+        <f>C17/1024</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
